--- a/Palantir.xlsx
+++ b/Palantir.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gale\Desktop\Excel\Valutazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A4FD4CF-9520-4AA3-A915-8868165538FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FB102E-33DA-463A-A93E-CB735629974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21396" windowHeight="11124" firstSheet="3" activeTab="3" xr2:uid="{DC7A5C01-7B3A-432B-B5CC-E11EBF130728}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21396" windowHeight="11124" xr2:uid="{DC7A5C01-7B3A-432B-B5CC-E11EBF130728}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Regressione coefficienti" sheetId="7" r:id="rId2"/>
-    <sheet name="Regressione Lineare" sheetId="4" r:id="rId3"/>
-    <sheet name="Valutazione tramite multipli" sheetId="6" r:id="rId4"/>
+    <sheet name="Multiple Valuation" sheetId="6" r:id="rId2"/>
+    <sheet name="Regression Coefficients" sheetId="7" r:id="rId3"/>
+    <sheet name="Linear Regression" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -988,7 +988,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Regressione Lineare'!$C$1</c:f>
+              <c:f>'Linear Regression'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1072,7 +1072,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Regressione Lineare'!$C$2:$C$30</c:f>
+              <c:f>'Linear Regression'!$C$2:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="29"/>
@@ -1168,7 +1168,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Regressione Lineare'!$B$2:$B$30</c:f>
+              <c:f>'Linear Regression'!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -2352,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42563088-9F85-4AEA-9C76-02116F1AA591}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.07</v>
+        <v>9.91</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="I4" s="1">
         <f>I2*I3</f>
-        <v>18637026.93</v>
+        <v>20363058.09</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I7" s="5">
         <f>I4+I9</f>
-        <v>16151298.93</v>
+        <v>17877330.09</v>
       </c>
       <c r="M7" s="2"/>
     </row>
@@ -2438,7 +2438,7 @@
         <v>-2485728</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="68" t="s">
         <v>12</v>
       </c>
@@ -2454,7 +2454,7 @@
       <c r="K12" s="68"/>
       <c r="L12" s="68"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="68" t="s">
         <v>13</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="68" t="s">
         <v>14</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="68" t="s">
         <v>19</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="K15" s="68"/>
       <c r="L15" s="68"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2537,7 +2537,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -2551,7 +2551,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
         <v>20</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="K18" s="67"/>
       <c r="L18" s="67"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="67"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -2581,7 +2581,7 @@
       <c r="K19" s="67"/>
       <c r="L19" s="67"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>21</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="K20" s="67"/>
       <c r="L20" s="67"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
@@ -2611,7 +2611,7 @@
       <c r="K21" s="67"/>
       <c r="L21" s="67"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
         <v>22</v>
       </c>
@@ -2627,7 +2627,7 @@
       <c r="K22" s="67"/>
       <c r="L22" s="67"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
@@ -2641,7 +2641,7 @@
       <c r="K23" s="67"/>
       <c r="L23" s="67"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="67" t="s">
         <v>23</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="K24" s="67"/>
       <c r="L24" s="67"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="67"/>
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
@@ -2671,7 +2671,7 @@
       <c r="K25" s="67"/>
       <c r="L25" s="67"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
         <v>24</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="K26" s="67"/>
       <c r="L26" s="67"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2701,7 +2701,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="61" t="s">
         <v>25</v>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="L28" s="61"/>
       <c r="M28" s="62"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -2733,7 +2733,7 @@
       <c r="L29" s="61"/>
       <c r="M29" s="62"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="61" t="s">
         <v>26</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="L30" s="61"/>
       <c r="M30" s="62"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="61"/>
       <c r="B31" s="61"/>
       <c r="C31" s="61"/>
@@ -2767,7 +2767,7 @@
       <c r="L31" s="61"/>
       <c r="M31" s="62"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
         <v>27</v>
       </c>
@@ -2786,7 +2786,7 @@
       <c r="L32" s="61"/>
       <c r="M32" s="62"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="61"/>
       <c r="B33" s="61"/>
       <c r="C33" s="61"/>
@@ -2801,7 +2801,7 @@
       <c r="L33" s="61"/>
       <c r="M33" s="62"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="61" t="s">
         <v>28</v>
       </c>
@@ -2820,7 +2820,7 @@
       <c r="L34" s="61"/>
       <c r="M34" s="62"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2834,7 +2834,8 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="63" t="s">
         <v>32</v>
       </c>
@@ -2851,7 +2852,8 @@
       <c r="L37" s="64"/>
       <c r="M37" s="64"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
         <v>105</v>
       </c>
@@ -2875,595 +2877,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B729ADD-32FA-4E63-8989-F5B50895EFE9}">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B16:B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.90977056330720452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.82768247786030813</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.79196819214602243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="6">
-        <v>3.6351123494879536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1777.166129784805</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1777.166129784805</v>
-      </c>
-      <c r="E12" s="6">
-        <v>134.49073020735159</v>
-      </c>
-      <c r="F12" s="6">
-        <v>5.4003744923906461E-12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="6">
-        <v>28</v>
-      </c>
-      <c r="C13" s="6">
-        <v>369.99317021519522</v>
-      </c>
-      <c r="D13" s="6">
-        <v>13.214041793399829</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="7">
-        <v>29</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2147.1593000000003</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="7">
-        <v>28.307065225563527</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2.4408925948375342</v>
-      </c>
-      <c r="D18" s="7">
-        <v>11.597013848717767</v>
-      </c>
-      <c r="E18" s="7">
-        <v>3.3204551343149053E-12</v>
-      </c>
-      <c r="F18" s="7">
-        <v>23.307123401943194</v>
-      </c>
-      <c r="G18" s="7">
-        <v>33.307007049183859</v>
-      </c>
-      <c r="H18" s="7">
-        <v>23.307123401943194</v>
-      </c>
-      <c r="I18" s="7">
-        <v>33.307007049183859</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21080879-FFAB-45FB-9DBD-A5DAF36E113B}">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
-        <v>10.66</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.42049999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>19.190000000000001</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.37309999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>5.29</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.29649999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>12.15</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.36249999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>11.13</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.17879999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>7.2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.30349999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8">
-        <v>3.77</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.1913</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>3.81</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10">
-        <v>6.7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9.5999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11">
-        <v>1.82</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.1532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>7.38</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.31380000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13">
-        <v>3.39</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <v>5.46</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.2787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.18079999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17">
-        <v>9.27</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.1759</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18">
-        <v>3.17</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3.6000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19">
-        <v>6.09</v>
-      </c>
-      <c r="C19" s="10">
-        <v>6.6299999999999998E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20">
-        <v>6.67</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.23380000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21">
-        <v>10.65</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.1895</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22">
-        <v>10.76</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.24410000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.65839999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24">
-        <v>6.31</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.25869999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0.37670000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26">
-        <v>7.28</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.16829999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27">
-        <v>14.89</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0.38270000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28">
-        <v>2.09</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0.17449999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29">
-        <v>5.44</v>
-      </c>
-      <c r="C29" s="10">
-        <v>0.21759999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30">
-        <v>3.12</v>
-      </c>
-      <c r="C30" s="10">
-        <v>3.15E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E7E94D-0FAD-4F6E-AE41-9E3854D88865}">
   <dimension ref="A3:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -3869,4 +3286,589 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B729ADD-32FA-4E63-8989-F5B50895EFE9}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B16:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.90977056330720452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.82768247786030813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.79196819214602243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3.6351123494879536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1777.166129784805</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1777.166129784805</v>
+      </c>
+      <c r="E12" s="6">
+        <v>134.49073020735159</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5.4003744923906461E-12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="6">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6">
+        <v>369.99317021519522</v>
+      </c>
+      <c r="D13" s="6">
+        <v>13.214041793399829</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="7">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2147.1593000000003</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="7">
+        <v>28.307065225563527</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2.4408925948375342</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11.597013848717767</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3.3204551343149053E-12</v>
+      </c>
+      <c r="F18" s="7">
+        <v>23.307123401943194</v>
+      </c>
+      <c r="G18" s="7">
+        <v>33.307007049183859</v>
+      </c>
+      <c r="H18" s="7">
+        <v>23.307123401943194</v>
+      </c>
+      <c r="I18" s="7">
+        <v>33.307007049183859</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21080879-FFAB-45FB-9DBD-A5DAF36E113B}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>10.66</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.42049999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.37309999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>5.29</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.29649999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>12.15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.36249999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>11.13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.17879999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>7.2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.30349999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>3.77</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.1913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>3.81</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>6.7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>1.82</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>7.38</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.31380000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>3.39</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>5.46</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.2787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.18079999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>9.27</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.1759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>3.17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19">
+        <v>6.09</v>
+      </c>
+      <c r="C19" s="10">
+        <v>6.6299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20">
+        <v>6.67</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.23380000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21">
+        <v>10.65</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.1895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <v>10.76</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.24410000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.65839999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24">
+        <v>6.31</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.25869999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.37670000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26">
+        <v>7.28</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.16829999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27">
+        <v>14.89</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.38270000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28">
+        <v>2.09</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.17449999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29">
+        <v>5.44</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.21759999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30">
+        <v>3.12</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3.15E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>